--- a/01. HUB/medios integracion/Bases Medio Integracion 2024/2024 - Q4/bases marcar/Marcacion_Chile_twitter.xlsx
+++ b/01. HUB/medios integracion/Bases Medio Integracion 2024/2024 - Q4/bases marcar/Marcacion_Chile_twitter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,838 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-27 13:42:00.000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cordero por dichos de Orellana contra Chomalí por ley de aborto: “Me parece que es crear una disputa ficticia”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>..."En el caso de cardenal Chomalí, él ha sido un promotor, por lo menos en lo que se refiere a los temas en que yo he trabajo con él, tanto en los temas de Derechos Humanos como en los temas de Migración, siempre he manifestado una buena disposición", añadió...</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.t13.cl/noticia/politica/cordero-por-dichos-orellana-contra-chomali-por-ley-aborto-me-parece-crear-una-d-27-12-2024</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>t13.cl</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>T13</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>307149</v>
+      </c>
+      <c r="U2" t="n">
+        <v>181</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-23 14:00:01.000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cardenal Chomalí critica la estigmatización de los migrantes y defiende su integración\n\nhttps://t.co/Fspe6KbHR2 https://t.co/oLhgMmbJUD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cardenal Chomalí critica la estigmatización de los migrantes y defiende su integración https://t.co/Fspe6KbHR2 https://t.co/oLhgMmbJUD</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>http://twitter.com/uchileradio/statuses/1871194050885304500</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>uchileradio</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>uchileradio (Diario-Radio UChile)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>56</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GffLvdBXIAAxNNd.jpg</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>1414667000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>21141</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-16 14:46:21.000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza”\n\nSiga leyendo 👇\nhttps://t.co/WjgF13mnFf https://t.co/cHZWXkriG1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza” Siga leyendo 👇 https://t.co/WjgF13mnFf https://t.co/cHZWXkriG1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>http://twitter.com/elmostrador/statuses/1868668995542618348</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>elmostrador</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>elmostrador (El Mostrador)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>1414667000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>63606</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-12-16 14:10:29.000</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza”\n\nSiga leyendo 👇\nhttps://t.co/WjgF13mnFf https://t.co/TLgwJFxzwG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza” Siga leyendo 👇 https://t.co/WjgF13mnFf https://t.co/TLgwJFxzwG</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>http://twitter.com/elmostrador/statuses/1868659968783835153</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>elmostrador</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>elmostrador (El Mostrador)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/Ge7QUlIXkAAPAFt.png</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>1414667000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>65743</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-12-12 21:13:06.000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sobre el desafío de las olas migratorias en el mundo\n\n“Son las democracias las que se habían comprometido por varias décadas, en crear un régimen de cierta protección para las personas migrantes”: Jaime Abedrapo, autor del libro "Inmigración en Democracias sin memoria. El gran… https://t.co/Uu7eFEBPzi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sobre el desafío de las olas migratorias en el mundo “Son las democracias las que se habían comprometido por varias décadas, en crear un régimen de cierta protección para las personas migrantes”: Jaime Abedrapo, autor del libro "Inmigración en Democracias sin memoria. El gran… https://t.co/Uu7eFEBPzi</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>http://twitter.com/Pauta_cl/statuses/1867316774548705728</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Pauta_cl</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Pauta_cl (Radio Pauta)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>1414667000</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9520</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-17 01:49:12.000</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. ante la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones.\n\nMás en https://t.co/Ox6C5F6K3w https://t.co/n8UgqYTTtg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. ante la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones. Más en https://t.co/Ox6C5F6K3w https://t.co/n8UgqYTTtg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://twitter.com/CNNChile/statuses/1846730147933675633</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CNNChile</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>CNNChile (CNN Chile)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>81414</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-17 01:48:51.000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. en la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones.\n\nMás en https://t.co/Ox6C5F6K3w https://t.co/8WlXJ9BfcK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. en la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones. Más en https://t.co/Ox6C5F6K3w https://t.co/8WlXJ9BfcK</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>http://twitter.com/CNNChile/statuses/1846730059379306510</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CNNChile</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CNNChile (CNN Chile)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>75917</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-05 05:05:46.000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>“UNO SE VA A VIVIR CON UN ANILLO” 💍😳🔥\n\n👁️ Manuel le propuso a Chama vivir juntos, pero la influencer venezolana no quiere ceder tan fácilmente.\n\n#GranHermanoCHV \n\nLo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano Chile las 24hrs, y no te pierdas el… https://t.co/feOgyLqAMp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>“UNO SE VA A VIVIR CON UN ANILLO” 💍😳🔥 👁️ Manuel le propuso a Chama vivir juntos, pero la influencer venezolana no quiere ceder tan fácilmente. #GranHermanoCHV Lo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano Chile las 24hrs, y no te pierdas el… https://t.co/feOgyLqAMp</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>http://twitter.com/chilevision/statuses/1842430960274379090</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>chilevision</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>chilevision (Chilevisión)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>84</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1414667000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>124723</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-05 04:47:26.000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>“NO FUE UNA PERSONA LEAL”\n\nTras la pregunta de JP sobre si Chama tendría alguna conversación con Michelle, la influencer venezolana aseguró que no tiene nada pendiente con la brasileña\n\n#GranHermanoCHV\n\nLo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano… https://t.co/XORWnMGXox</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>“NO FUE UNA PERSONA LEAL” Tras la pregunta de JP sobre si Chama tendría alguna conversación con Michelle, la influencer venezolana aseguró que no tiene nada pendiente con la brasileña #GranHermanoCHV Lo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano… https://t.co/XORWnMGXox</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>http://twitter.com/chilevision/statuses/1842426347047506193</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>twitter.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>chilevision</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>chilevision (Chilevisión)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>83</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>1414667000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>113989</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
